--- a/Time sheet/Timetsheet - Eric(Week4).xlsx
+++ b/Time sheet/Timetsheet - Eric(Week4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Google Drive/U Adelaide course materials/MCI projects/Team-024/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D137B03-1EAA-994F-8587-8AFAB46B6815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B32BF-DA6D-7444-A25E-4BD9CB13D3B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="3580" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1160" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>Complete 60% of the online course at Udemy</t>
+  </si>
+  <si>
+    <t>Work on the first part of pitch presentation slides</t>
+  </si>
+  <si>
+    <t>Prepare materials required for pitch presentation</t>
+  </si>
+  <si>
+    <t>Complete the first draft of the first part of the presentation slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on the 'What' and 'Why' of the business case, first draft milestone plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of the business case and first milestone plan draft </t>
+  </si>
+  <si>
+    <t>Complete the draft of most of the 'What' and 'Why' of the business case, first milestone plan</t>
   </si>
 </sst>
 </file>
@@ -252,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +319,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,7 +675,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,15 +758,17 @@
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="19">
+        <v>44277</v>
+      </c>
       <c r="C6" s="17">
         <v>0.375</v>
       </c>
       <c r="D6" s="17">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>19</v>
@@ -796,13 +825,27 @@
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="19">
+        <v>44278</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -898,17 +941,31 @@
       <c r="AV8" s="12"/>
       <c r="AW8" s="12"/>
     </row>
-    <row r="9" spans="1:49" s="13" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="19">
+        <v>44280</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -955,11 +1012,13 @@
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15">
+      <c r="B10" s="19">
+        <v>44281</v>
+      </c>
+      <c r="C10" s="17">
         <v>0.875</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>0.625</v>
       </c>
       <c r="E10" s="11">
@@ -1075,7 +1134,7 @@
       </c>
       <c r="E12" s="8">
         <f>SUM(E6:E11)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
